--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value358.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value358.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7668782701282972</v>
+        <v>0.9565056562423706</v>
       </c>
       <c r="B1">
-        <v>1.185805179134425</v>
+        <v>3.025663137435913</v>
       </c>
       <c r="C1">
-        <v>2.57601193009229</v>
+        <v>4.198607921600342</v>
       </c>
       <c r="D1">
-        <v>3.582220839547615</v>
+        <v>2.073939561843872</v>
       </c>
       <c r="E1">
-        <v>1.250174007311446</v>
+        <v>1.235293984413147</v>
       </c>
     </row>
   </sheetData>
